--- a/数据整理/stocks/港股/06837-海通证券.xlsx
+++ b/数据整理/stocks/港股/06837-海通证券.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>98.18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.49</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8883</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.61</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>7.61</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.68</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0463</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.42</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>7.68</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006578</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -706,25 +786,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006579</t>
+          <t>006578</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
+          <t>泰康中证港股通非银行金融主题指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.31</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.97</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>006579</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.67</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06837-海通证券.xlsx
+++ b/数据整理/stocks/港股/06837-海通证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9532</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06837-海通证券.xlsx
+++ b/数据整理/stocks/港股/06837-海通证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1030,4 +1031,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8543</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06837-海通证券.xlsx
+++ b/数据整理/stocks/港股/06837-海通证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06837-海通证券.xlsx
+++ b/数据整理/stocks/港股/06837-海通证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6545</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1352,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.14</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1368,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1384,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.15</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06837-海通证券.xlsx
+++ b/数据整理/stocks/港股/06837-海通证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.65</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1395,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="4">
@@ -1368,14 +1501,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.14</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5">
@@ -1384,14 +1517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="6">
@@ -1400,13 +1533,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.15</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06837-海通证券.xlsx
+++ b/数据整理/stocks/港股/06837-海通证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1438,7 +1439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1449,17 +1450,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1490,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9389</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.77</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1485,14 +1580,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="4">
@@ -1501,14 +1596,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
@@ -1517,14 +1612,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.14</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="6">
@@ -1533,14 +1628,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="7">
@@ -1549,13 +1644,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.15</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06837-海通证券.xlsx
+++ b/数据整理/stocks/港股/06837-海通证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.77</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.14</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>96.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9389</t>
+          <t>0.7339</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -694,6 +711,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9389</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,7 +936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -912,176 +1023,6 @@
       </c>
       <c r="H2" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8543</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006578</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006579</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1156,22 +1097,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>96.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9532</t>
+          <t>0.8543</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1184,36 +1125,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>006578</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>泰康中证港股通非银行金融主题指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1119</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1222,36 +1163,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>006579</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0751</t>
+          <t>0.0089</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1260,6 +1201,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9532</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1505,7 +1616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06837-海通证券.xlsx
+++ b/数据整理/stocks/港股/06837-海通证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.73</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.77</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.14</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,204 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8883</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +870,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.53</t>
+          <t>11.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.33</t>
+          <t>97.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7339</t>
+          <t>0.8122</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -777,26 +964,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.28</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.33</t>
+          <t>96.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9389</t>
+          <t>0.7339</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -805,6 +992,100 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9389</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -936,7 +1217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1023,176 +1304,6 @@
       </c>
       <c r="H2" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8543</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006578</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006579</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0089</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1267,22 +1378,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>9.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>96.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9532</t>
+          <t>0.8543</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1295,36 +1406,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>006578</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>泰康中证港股通非银行金融主题指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1119</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1333,36 +1444,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>006579</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>泰康中证港股通非银行金融主题指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0751</t>
+          <t>0.0089</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1371,6 +1482,176 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9532</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1119</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1614,174 +1895,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8883</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004496</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1750</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源多元策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0860</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>